--- a/02.Hardware/BOMs/Tornilleria Bateria.xlsx
+++ b/02.Hardware/BOMs/Tornilleria Bateria.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javi\Team Dropbox\Javi Rodriguez\Workspace\2-PROYECTOS\Bitbucket\03-Battery Pack\bat_hw\BOMs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javi\Team Dropbox\JRODRIGUEZ\Repositorios\01.Battery Pack\02.Hardware\BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74CE5751-CB98-41C2-B18F-11A6A69168C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6493D33-6BCD-46E1-8F43-6A6579BB006A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{DB963CB8-D986-41B9-AC62-E120B4CFC0F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -193,7 +193,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{F945060B-AA33-4245-9D6C-1FBF17F5E52B}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -505,7 +507,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
